--- a/Manual_Testing/Bug_Report.xlsx
+++ b/Manual_Testing/Bug_Report.xlsx
@@ -117,9 +117,6 @@
     <t>Mainor</t>
   </si>
   <si>
-    <t>Tc_LOG_FN_004</t>
-  </si>
-  <si>
     <t>Dev</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
     <t xml:space="preserve"> eye is not 
 clickable
 and dont Show password </t>
+  </si>
+  <si>
+    <t>Tc_LOG_FN_003</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -610,10 +610,10 @@
         <v>20</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>21</v>
@@ -629,10 +629,10 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
